--- a/api/static/file/templatePreguntas.xlsx
+++ b/api/static/file/templatePreguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6629A6E-4945-440D-A31B-F4376706AF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26AC77F-D750-4D43-B9A0-86AA23C05FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5C7E133-EA32-40C2-8258-6205BD768B79}"/>
   </bookViews>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>nombrePregunta</t>
   </si>
@@ -211,18 +211,6 @@
     <t>Continua</t>
   </si>
   <si>
-    <t>Pregunta 2</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Justificación 2</t>
-  </si>
-  <si>
-    <t>Seriada</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -275,6 +263,48 @@
   </si>
   <si>
     <t>Colocar el id que corresponde al temario e igual a la categoria de la pregunta</t>
+  </si>
+  <si>
+    <t>respuestaUno</t>
+  </si>
+  <si>
+    <t>respuestaDos</t>
+  </si>
+  <si>
+    <t>respuestaTres</t>
+  </si>
+  <si>
+    <t>respuestaCuatro</t>
+  </si>
+  <si>
+    <t>mal1</t>
+  </si>
+  <si>
+    <t>mal2</t>
+  </si>
+  <si>
+    <t>mal3</t>
+  </si>
+  <si>
+    <t>Incorrecto</t>
+  </si>
+  <si>
+    <t>Correcto</t>
+  </si>
+  <si>
+    <t>mal4</t>
+  </si>
+  <si>
+    <t>statusRespuestaUno</t>
+  </si>
+  <si>
+    <t>statusRespuestaDos</t>
+  </si>
+  <si>
+    <t>statusRespuestaTres</t>
+  </si>
+  <si>
+    <t>statusRespuestaCuatro</t>
   </si>
 </sst>
 </file>
@@ -459,10 +489,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24652865-C476-4648-B050-A61AFC2EEE65}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,11 +822,17 @@
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,8 +851,32 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,26 +895,38 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -884,29 +952,29 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -922,13 +990,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -945,13 +1013,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -968,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -991,13 +1059,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1014,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -1031,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1039,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1047,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1055,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1063,7 +1131,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1071,7 +1139,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
